--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,127 +40,112 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -518,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -737,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7597402597402597</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3928571428571428</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3218884120171674</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,169 +840,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.796875</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <v>102</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.25</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.875</v>
-      </c>
-      <c r="L9">
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.186046511627907</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>70</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>99</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,21 +942,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,47 +968,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L13">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
-      </c>
-      <c r="K13">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L13">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1107,21 +1020,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,47 +1046,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L16">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>75</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>31</v>
-      </c>
-      <c r="K16">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L16">
-        <v>29</v>
-      </c>
-      <c r="M16">
-        <v>29</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1185,21 +1098,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6712328767123288</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,21 +1124,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6470588235294118</v>
+        <v>0.64</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1237,21 +1150,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6470588235294118</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,21 +1176,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,21 +1202,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.5117493472584856</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6060606060606061</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1367,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5868544600938967</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L25">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5789473684210527</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1419,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.3694915254237288</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L29">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1497,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4651162790697674</v>
+        <v>0.296875</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1549,59 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L32">
-        <v>15</v>
-      </c>
-      <c r="M32">
-        <v>15</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="L33">
-        <v>38</v>
-      </c>
-      <c r="M33">
-        <v>38</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,40 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
@@ -85,13 +85,13 @@
     <t>thank</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safety</t>
   </si>
   <si>
     <t>confidence</t>
@@ -100,52 +100,55 @@
     <t>safe</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
+    <t>hope</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6232876712328768</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C6">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,60 +796,36 @@
         <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>98</v>
-      </c>
-      <c r="M7">
-        <v>98</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1724806201550388</v>
-      </c>
-      <c r="C8">
-        <v>89</v>
-      </c>
-      <c r="D8">
-        <v>89</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>427</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L8">
         <v>22</v>
@@ -864,21 +843,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,21 +869,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -968,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7666666666666667</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7394366197183099</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7075471698113207</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L16">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.69375</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6862745098039216</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6349206349206349</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6276595744680851</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5117493472584856</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L23">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4705882352941176</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L24">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="M24">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4468085106382979</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4269662921348314</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.3835616438356164</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3694915254237288</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L28">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M28">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.358974358974359</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3221757322175732</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L30">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1436,33 +1415,85 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>162</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.3230769230769231</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>21</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K31">
-        <v>0.296875</v>
-      </c>
-      <c r="L31">
+      <c r="K32">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.008870214752567693</v>
+      </c>
+      <c r="L33">
         <v>19</v>
       </c>
-      <c r="M31">
-        <v>19</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>45</v>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>0.95</v>
+      </c>
+      <c r="O33">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2123</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -58,37 +58,43 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safe</t>
   </si>
   <si>
     <t>safety</t>
@@ -97,58 +103,58 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>energy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -625,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6061643835616438</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5277777777777778</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1802325581395349</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1798941798941799</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8148148148148148</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -843,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -851,13 +857,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +883,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -903,13 +909,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8046875</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L11">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -929,13 +935,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7833333333333333</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -955,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -981,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1007,13 +1013,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1025,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1033,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7183098591549296</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1051,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1059,13 +1065,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.69375</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1085,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6886792452830188</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L18">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1111,13 +1117,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6190476190476191</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1129,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1137,13 +1143,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1155,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1163,13 +1169,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5957446808510638</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1181,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1189,13 +1195,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.574468085106383</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1215,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5588235294117647</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1233,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1241,13 +1247,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4908616187989556</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L24">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M24">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1267,7 +1273,7 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4791666666666667</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L25">
         <v>23</v>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1293,13 +1299,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4735294117647059</v>
+        <v>0.475</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1311,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1319,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4719101123595505</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1345,13 +1351,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4169491525423729</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L28">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>172</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1371,13 +1377,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3430962343096234</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L29">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1389,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1397,13 +1403,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3424657534246575</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1423,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3230769230769231</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1449,13 +1455,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.2948717948717949</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1475,25 +1481,77 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.008870214752567693</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>2123</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.34375</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.3138075313807531</v>
+      </c>
+      <c r="L35">
+        <v>75</v>
+      </c>
+      <c r="M35">
+        <v>75</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
